--- a/cordova/climapp/res/communicables/rules.xlsx
+++ b/cordova/climapp/res/communicables/rules.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boriskingma/Documents/GitHub/ClimApp/cordova/climapp/res/communicables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28E7F1F-0B0D-B049-BF4D-512634AB7B9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC490191-8549-9C49-B07E-5813DFFF1BD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{E8A3CD65-7563-B549-8534-B567023226B0}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28040" windowHeight="16080" activeTab="1" xr2:uid="{E8A3CD65-7563-B549-8534-B567023226B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="gaugeexplanations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>IREQ &lt;=1 and WBGT/RAL &lt;= 1</t>
   </si>
@@ -97,6 +98,36 @@
   </si>
   <si>
     <t>Due to the windchill X there is a risk for exposed skin to freeze in Y minutes.</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>beginner</t>
+  </si>
+  <si>
+    <t>heat_risk_from</t>
+  </si>
+  <si>
+    <t>heat_risk_till</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>The heat level is in yellow, this means that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The heat </t>
+  </si>
+  <si>
+    <t>The heat level is in the lower green levels, this means that there is a low level of heat stress</t>
+  </si>
+  <si>
+    <t>The heat level is in the green level, this means that no severe heat stress is expected</t>
+  </si>
+  <si>
+    <t>The heat level is in the higher green levels, nearing yellow, this means that still no real heat stress is expected, but you…</t>
   </si>
 </sst>
 </file>
@@ -459,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5876F58-C9BE-C14A-A399-AA59344F8CCD}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -575,4 +606,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1E0C51-BCBD-E340-9F58-21FDB0C6F2D7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>